--- a/Data_Sets/Seattle-Police-Beat-and-Precinct-Centerpoints.xlsx
+++ b/Data_Sets/Seattle-Police-Beat-and-Precinct-Centerpoints.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16729"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,23 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10830" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Police_Beat_and_Precinct_Center" sheetId="1" r:id="rId1"/>
+    <sheet name="Police_Beat_Location" sheetId="1" r:id="rId1"/>
+    <sheet name="Police_Precinct_Location" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Police_Beat_Location!$A$1:$F$53</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Location 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="78">
   <si>
     <t>Latitude</t>
   </si>
@@ -36,343 +34,229 @@
     <t>E</t>
   </si>
   <si>
-    <t>(47.620154274814404, -122.304782602556)</t>
-  </si>
-  <si>
     <t>C1</t>
   </si>
   <si>
-    <t>(47.6342500180223, -122.315684762418)</t>
-  </si>
-  <si>
     <t>C3</t>
   </si>
   <si>
-    <t>(47.630079288747403, -122.292087128251)</t>
-  </si>
-  <si>
     <t>D2</t>
   </si>
   <si>
-    <t>(47.625654887604902, -122.331370005506)</t>
-  </si>
-  <si>
     <t>E1</t>
   </si>
   <si>
-    <t>(47.620348688207301, -122.324419823241)</t>
-  </si>
-  <si>
     <t>C2</t>
   </si>
   <si>
-    <t>(47.619238575299597, -122.313557430551)</t>
-  </si>
-  <si>
     <t>G1</t>
   </si>
   <si>
-    <t>(47.609137330649403, -122.30789961679299)</t>
-  </si>
-  <si>
     <t>E2</t>
   </si>
   <si>
-    <t>(47.611843267110203, -122.32016086570999)</t>
-  </si>
-  <si>
     <t>D3</t>
   </si>
   <si>
-    <t>(47.6103493249325, -122.32865370619901)</t>
-  </si>
-  <si>
     <t>G3</t>
   </si>
   <si>
-    <t>(47.603182188167501, -122.292398835358)</t>
-  </si>
-  <si>
     <t>K1</t>
   </si>
   <si>
-    <t>(47.6077552981764, -122.33410746063799)</t>
-  </si>
-  <si>
     <t>E3</t>
   </si>
   <si>
-    <t>(47.603162336406001, -122.319319689671)</t>
-  </si>
-  <si>
     <t>K2</t>
   </si>
   <si>
-    <t>(47.5998930290529, -122.326813620856)</t>
-  </si>
-  <si>
     <t>K3</t>
   </si>
   <si>
-    <t>(47.590397207852497, -122.333545010682)</t>
-  </si>
-  <si>
     <t>G2</t>
   </si>
   <si>
-    <t>(47.595895298951802, -122.306633195511)</t>
-  </si>
-  <si>
     <t>O1</t>
   </si>
   <si>
-    <t>(47.582285935921298, -122.311799603309)</t>
-  </si>
-  <si>
     <t>R1</t>
   </si>
   <si>
-    <t>(47.575811456919403, -122.288707022144)</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
-    <t>(47.6902980120839, -122.328757390104)</t>
-  </si>
-  <si>
     <t>B1</t>
   </si>
   <si>
-    <t>(47.709775639459203, -122.370990523069)</t>
-  </si>
-  <si>
     <t>N1</t>
   </si>
   <si>
-    <t>(47.722687539040599, -122.34045903910599)</t>
-  </si>
-  <si>
     <t>L1</t>
   </si>
   <si>
-    <t>(47.726548881770903, -122.302631931191)</t>
-  </si>
-  <si>
     <t>N3</t>
   </si>
   <si>
-    <t>(47.704500524644203, -122.329961214037)</t>
-  </si>
-  <si>
     <t>L2</t>
   </si>
   <si>
-    <t>(47.709558883744201, -122.30366100786701)</t>
-  </si>
-  <si>
     <t>L3</t>
   </si>
   <si>
-    <t>(47.680853154025499, -122.277032733938)</t>
-  </si>
-  <si>
     <t>N2</t>
   </si>
   <si>
-    <t>(47.698470493248998, -122.351867710243)</t>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
-    <t>(47.684867767626898, -122.309913082907)</t>
-  </si>
-  <si>
     <t>B2</t>
   </si>
   <si>
-    <t>(47.679052190137398, -122.391748391741)</t>
-  </si>
-  <si>
     <t>B3</t>
   </si>
   <si>
-    <t>(47.681292048222701, -122.364236159741)</t>
-  </si>
-  <si>
     <t>J1</t>
   </si>
   <si>
-    <t>(47.676809900774003, -122.337899655521)</t>
-  </si>
-  <si>
     <t>U2</t>
   </si>
   <si>
-    <t>(47.658554530063498, -122.30659481859)</t>
-  </si>
-  <si>
     <t>U3</t>
   </si>
   <si>
-    <t>(47.666008348785503, -122.312204733721)</t>
-  </si>
-  <si>
     <t>J2</t>
   </si>
   <si>
-    <t>(47.661337451672303, -122.363818988307)</t>
-  </si>
-  <si>
     <t>J3</t>
   </si>
   <si>
-    <t>(47.656378177487703, -122.336468775341)</t>
-  </si>
-  <si>
     <t>SE</t>
   </si>
   <si>
-    <t>(47.547676683805101, -122.284789228904)</t>
-  </si>
-  <si>
     <t>O2</t>
   </si>
   <si>
-    <t>(47.5656855826482, -122.330941962362)</t>
-  </si>
-  <si>
     <t>R2</t>
   </si>
   <si>
-    <t>(47.562285343513999, -122.304240734006)</t>
-  </si>
-  <si>
     <t>R3</t>
   </si>
   <si>
-    <t>(47.552795111033298, -122.26821078221801)</t>
-  </si>
-  <si>
     <t>O3</t>
   </si>
   <si>
-    <t>(47.5345836385751, -122.30302026628701)</t>
-  </si>
-  <si>
     <t>S1</t>
   </si>
   <si>
-    <t>(47.5439339496481, -122.286476209963)</t>
-  </si>
-  <si>
     <t>S2</t>
   </si>
   <si>
-    <t>(47.526351948481597, -122.274095175041)</t>
-  </si>
-  <si>
     <t>S3</t>
   </si>
   <si>
-    <t>(47.509353335367202, -122.259542630385)</t>
-  </si>
-  <si>
     <t>SW</t>
   </si>
   <si>
-    <t>(47.547856615403802, -122.36178740836399)</t>
-  </si>
-  <si>
     <t>W1</t>
   </si>
   <si>
-    <t>(47.578816408008301, -122.378814011668)</t>
-  </si>
-  <si>
     <t>W2</t>
   </si>
   <si>
-    <t>(47.560706830188799, -122.38694647503701)</t>
-  </si>
-  <si>
     <t>F1</t>
   </si>
   <si>
-    <t>(47.548414659303504, -122.35480967015501)</t>
-  </si>
-  <si>
     <t>W3</t>
   </si>
   <si>
-    <t>(47.525547988980399, -122.384581696918)</t>
-  </si>
-  <si>
     <t>F3</t>
   </si>
   <si>
-    <t>(47.526105298511503, -122.336388313318)</t>
-  </si>
-  <si>
     <t>F2</t>
   </si>
   <si>
-    <t>(47.525450246174103, -122.36581754832901)</t>
-  </si>
-  <si>
     <t>W</t>
   </si>
   <si>
-    <t>(47.630023783335702, -122.36805316444401)</t>
-  </si>
-  <si>
     <t>Q1</t>
   </si>
   <si>
-    <t>(47.650261230265002, -122.400003042555)</t>
-  </si>
-  <si>
     <t>Q2</t>
   </si>
   <si>
-    <t>(47.6428529450151, -122.362673076853)</t>
-  </si>
-  <si>
     <t>D1</t>
   </si>
   <si>
-    <t>(47.627442130802798, -122.345705781837)</t>
-  </si>
-  <si>
     <t>Q3</t>
   </si>
   <si>
-    <t>(47.626980406317898, -122.362807276708)</t>
-  </si>
-  <si>
     <t>M1</t>
   </si>
   <si>
-    <t>(47.615758442258702, -122.350867935301)</t>
-  </si>
-  <si>
     <t>M2</t>
   </si>
   <si>
-    <t>(47.614615019358602, -122.340275405136)</t>
-  </si>
-  <si>
     <t>M3</t>
   </si>
   <si>
-    <t>(47.6077571617787, -122.34089639003599)</t>
-  </si>
-  <si>
     <t>CITYWIDE</t>
   </si>
   <si>
-    <t>(47.6210041048652, -122.33299349899799)</t>
+    <t>URL_to_location</t>
+  </si>
+  <si>
+    <t>google_query</t>
+  </si>
+  <si>
+    <t>http://maps.google.com/?q=</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Zip</t>
+  </si>
+  <si>
+    <t>Seattle</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>3001 S. Myrtle</t>
+  </si>
+  <si>
+    <t>2300 S.W. Webster</t>
+  </si>
+  <si>
+    <t>1519 12th Avenue</t>
+  </si>
+  <si>
+    <t>10049 College Way N.</t>
+  </si>
+  <si>
+    <t>810 Virginia Street</t>
+  </si>
+  <si>
+    <t>URL_to_Precinct</t>
+  </si>
+  <si>
+    <t>Seatte</t>
+  </si>
+  <si>
+    <t>610 Fifth Avenue</t>
+  </si>
+  <si>
+    <t>Precinct</t>
+  </si>
+  <si>
+    <t>Beat</t>
   </si>
 </sst>
 </file>
@@ -856,8 +740,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1213,144 +1098,216 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="45" customWidth="1"/>
+    <col min="6" max="6" width="32.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2">
+        <v>47.709780000000002</v>
+      </c>
+      <c r="D2">
+        <v>-122.37099000000001</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E33" si="0">F2 &amp; C2 &amp; "," &amp; D2</f>
+        <v>http://maps.google.com/?q=47.70978,-122.37099</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>47.679049999999997</v>
+      </c>
+      <c r="D3">
+        <v>-122.39175</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
+        <v>http://maps.google.com/?q=47.67905,-122.39175</v>
+      </c>
+      <c r="F3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>47.681289999999997</v>
+      </c>
+      <c r="D4">
+        <v>-122.36424</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>http://maps.google.com/?q=47.68129,-122.36424</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C5">
+        <v>47.634250000000002</v>
+      </c>
+      <c r="D5">
+        <v>-122.31568</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>http://maps.google.com/?q=47.63425,-122.31568</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>47.619239999999998</v>
+      </c>
+      <c r="D6">
+        <v>-122.31356</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>http://maps.google.com/?q=47.61924,-122.31356</v>
+      </c>
+      <c r="F6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>47.63008</v>
+      </c>
+      <c r="D7">
+        <v>-122.29209</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>http://maps.google.com/?q=47.63008,-122.29209</v>
+      </c>
+      <c r="F7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8">
+        <v>47.62744</v>
+      </c>
+      <c r="D8">
+        <v>-122.34571</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>http://maps.google.com/?q=47.62744,-122.34571</v>
+      </c>
+      <c r="F8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>47.620150000000002</v>
-      </c>
-      <c r="D2">
-        <v>-122.30477999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>47.634250000000002</v>
-      </c>
-      <c r="D3">
-        <v>-122.31568</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>47.63008</v>
-      </c>
-      <c r="D4">
-        <v>-122.29209</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9">
+        <v>47.62565</v>
+      </c>
+      <c r="D9">
+        <v>-122.33137000000001</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>http://maps.google.com/?q=47.62565,-122.33137</v>
+      </c>
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>47.62565</v>
-      </c>
-      <c r="D5">
-        <v>-122.33137000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6">
-        <v>47.620350000000002</v>
-      </c>
-      <c r="D6">
-        <v>-122.32442</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7">
-        <v>47.619239999999998</v>
-      </c>
-      <c r="D7">
-        <v>-122.31356</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8">
-        <v>47.609139999999996</v>
-      </c>
-      <c r="D8">
-        <v>-122.3079</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9">
-        <v>47.611840000000001</v>
-      </c>
-      <c r="D9">
-        <v>-122.32016</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="C10">
         <v>47.610349999999997</v>
@@ -1358,41 +1315,62 @@
       <c r="D10">
         <v>-122.32865</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>http://maps.google.com/?q=47.61035,-122.32865</v>
+      </c>
+      <c r="F10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>47.603180000000002</v>
+        <v>47.620350000000002</v>
       </c>
       <c r="D11">
-        <v>-122.2924</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-122.32442</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>http://maps.google.com/?q=47.62035,-122.32442</v>
+      </c>
+      <c r="F11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>47.607759999999999</v>
+        <v>47.611840000000001</v>
       </c>
       <c r="D12">
-        <v>-122.33411</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-122.32016</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>http://maps.google.com/?q=47.61184,-122.32016</v>
+      </c>
+      <c r="F12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C13">
         <v>47.603160000000003</v>
@@ -1400,321 +1378,482 @@
       <c r="D13">
         <v>-122.31932</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>http://maps.google.com/?q=47.60316,-122.31932</v>
+      </c>
+      <c r="F13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C14">
+        <v>47.548409999999997</v>
+      </c>
+      <c r="D14">
+        <v>-122.35481</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>http://maps.google.com/?q=47.54841,-122.35481</v>
+      </c>
+      <c r="F14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15">
+        <v>47.525449999999999</v>
+      </c>
+      <c r="D15">
+        <v>-122.36582</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>http://maps.google.com/?q=47.52545,-122.36582</v>
+      </c>
+      <c r="F15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16">
+        <v>47.526110000000003</v>
+      </c>
+      <c r="D16">
+        <v>-122.33638999999999</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>http://maps.google.com/?q=47.52611,-122.33639</v>
+      </c>
+      <c r="F16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>47.609139999999996</v>
+      </c>
+      <c r="D17">
+        <v>-122.3079</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>http://maps.google.com/?q=47.60914,-122.3079</v>
+      </c>
+      <c r="F17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>47.5959</v>
+      </c>
+      <c r="D18">
+        <v>-122.30663</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>http://maps.google.com/?q=47.5959,-122.30663</v>
+      </c>
+      <c r="F18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>47.603180000000002</v>
+      </c>
+      <c r="D19">
+        <v>-122.2924</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>http://maps.google.com/?q=47.60318,-122.2924</v>
+      </c>
+      <c r="F19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>47.676810000000003</v>
+      </c>
+      <c r="D20">
+        <v>-122.3379</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>http://maps.google.com/?q=47.67681,-122.3379</v>
+      </c>
+      <c r="F20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>47.661340000000003</v>
+      </c>
+      <c r="D21">
+        <v>-122.36382</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>http://maps.google.com/?q=47.66134,-122.36382</v>
+      </c>
+      <c r="F21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22">
+        <v>47.656379999999999</v>
+      </c>
+      <c r="D22">
+        <v>-122.33647000000001</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>http://maps.google.com/?q=47.65638,-122.33647</v>
+      </c>
+      <c r="F22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23">
+        <v>47.607759999999999</v>
+      </c>
+      <c r="D23">
+        <v>-122.33411</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>http://maps.google.com/?q=47.60776,-122.33411</v>
+      </c>
+      <c r="F23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24">
         <v>47.599890000000002</v>
       </c>
-      <c r="D14">
+      <c r="D24">
         <v>-122.32680999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15">
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>http://maps.google.com/?q=47.59989,-122.32681</v>
+      </c>
+      <c r="F24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25">
         <v>47.590400000000002</v>
       </c>
-      <c r="D15">
+      <c r="D25">
         <v>-122.33355</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16">
-        <v>47.5959</v>
-      </c>
-      <c r="D16">
-        <v>-122.30663</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>http://maps.google.com/?q=47.5904,-122.33355</v>
+      </c>
+      <c r="F25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26">
+        <v>47.726550000000003</v>
+      </c>
+      <c r="D26">
+        <v>-122.30262999999999</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>http://maps.google.com/?q=47.72655,-122.30263</v>
+      </c>
+      <c r="F26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27">
+        <v>47.709560000000003</v>
+      </c>
+      <c r="D27">
+        <v>-122.30365999999999</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>http://maps.google.com/?q=47.70956,-122.30366</v>
+      </c>
+      <c r="F27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28">
+        <v>47.68085</v>
+      </c>
+      <c r="D28">
+        <v>-122.27703</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>http://maps.google.com/?q=47.68085,-122.27703</v>
+      </c>
+      <c r="F28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29">
+        <v>47.615760000000002</v>
+      </c>
+      <c r="D29">
+        <v>-122.35087</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>http://maps.google.com/?q=47.61576,-122.35087</v>
+      </c>
+      <c r="F29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30">
+        <v>47.614620000000002</v>
+      </c>
+      <c r="D30">
+        <v>-122.34028000000001</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>http://maps.google.com/?q=47.61462,-122.34028</v>
+      </c>
+      <c r="F30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31">
+        <v>47.607759999999999</v>
+      </c>
+      <c r="D31">
+        <v>-122.3409</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>http://maps.google.com/?q=47.60776,-122.3409</v>
+      </c>
+      <c r="F31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32">
+        <v>47.72269</v>
+      </c>
+      <c r="D32">
+        <v>-122.34045999999999</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>http://maps.google.com/?q=47.72269,-122.34046</v>
+      </c>
+      <c r="F32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33">
+        <v>47.69847</v>
+      </c>
+      <c r="D33">
+        <v>-122.35187000000001</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>http://maps.google.com/?q=47.69847,-122.35187</v>
+      </c>
+      <c r="F33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34">
+        <v>47.704500000000003</v>
+      </c>
+      <c r="D34">
+        <v>-122.32996</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" ref="E34:E52" si="1">F34 &amp; C34 &amp; "," &amp; D34</f>
+        <v>http://maps.google.com/?q=47.7045,-122.32996</v>
+      </c>
+      <c r="F34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" t="s">
         <v>35</v>
       </c>
-      <c r="C17">
+      <c r="C35">
         <v>47.58229</v>
       </c>
-      <c r="D17">
+      <c r="D35">
         <v>-122.31180000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="E35" t="str">
+        <f t="shared" si="1"/>
+        <v>http://maps.google.com/?q=47.58229,-122.3118</v>
+      </c>
+      <c r="F35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>36</v>
       </c>
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18">
-        <v>47.575809999999997</v>
-      </c>
-      <c r="D18">
-        <v>-122.28870999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19">
-        <v>47.690300000000001</v>
-      </c>
-      <c r="D19">
-        <v>-122.32876</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20">
-        <v>47.709780000000002</v>
-      </c>
-      <c r="D20">
-        <v>-122.37099000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21">
-        <v>47.72269</v>
-      </c>
-      <c r="D21">
-        <v>-122.34045999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22">
-        <v>47.726550000000003</v>
-      </c>
-      <c r="D22">
-        <v>-122.30262999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23">
-        <v>47.704500000000003</v>
-      </c>
-      <c r="D23">
-        <v>-122.32996</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24">
-        <v>47.709560000000003</v>
-      </c>
-      <c r="D24">
-        <v>-122.30365999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25">
-        <v>47.68085</v>
-      </c>
-      <c r="D25">
-        <v>-122.27703</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26">
-        <v>47.69847</v>
-      </c>
-      <c r="D26">
-        <v>-122.35187000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27">
-        <v>47.684869999999997</v>
-      </c>
-      <c r="D27">
-        <v>-122.30991</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28">
-        <v>47.679049999999997</v>
-      </c>
-      <c r="D28">
-        <v>-122.39175</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29">
-        <v>47.681289999999997</v>
-      </c>
-      <c r="D29">
-        <v>-122.36424</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30">
-        <v>47.676810000000003</v>
-      </c>
-      <c r="D30">
-        <v>-122.3379</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31">
-        <v>47.658549999999998</v>
-      </c>
-      <c r="D31">
-        <v>-122.30659</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32">
-        <v>47.66601</v>
-      </c>
-      <c r="D32">
-        <v>-122.3122</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33">
-        <v>47.661340000000003</v>
-      </c>
-      <c r="D33">
-        <v>-122.36382</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34">
-        <v>47.656379999999999</v>
-      </c>
-      <c r="D34">
-        <v>-122.33647000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>70</v>
-      </c>
-      <c r="B35" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35">
-        <v>47.54768</v>
-      </c>
-      <c r="D35">
-        <v>-122.28479</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>72</v>
-      </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>47.565689999999996</v>
@@ -1722,316 +1861,589 @@
       <c r="D36">
         <v>-122.33094</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" t="str">
+        <f t="shared" si="1"/>
+        <v>http://maps.google.com/?q=47.56569,-122.33094</v>
+      </c>
+      <c r="F36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>47.534579999999998</v>
+      </c>
+      <c r="D37">
+        <v>-122.30302</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="1"/>
+        <v>http://maps.google.com/?q=47.53458,-122.30302</v>
+      </c>
+      <c r="F37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38">
+        <v>47.650260000000003</v>
+      </c>
+      <c r="D38">
+        <v>-122.4</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="1"/>
+        <v>http://maps.google.com/?q=47.65026,-122.4</v>
+      </c>
+      <c r="F38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39">
+        <v>47.642850000000003</v>
+      </c>
+      <c r="D39">
+        <v>-122.36266999999999</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="1"/>
+        <v>http://maps.google.com/?q=47.64285,-122.36267</v>
+      </c>
+      <c r="F39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40">
+        <v>47.626980000000003</v>
+      </c>
+      <c r="D40">
+        <v>-122.36281</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="1"/>
+        <v>http://maps.google.com/?q=47.62698,-122.36281</v>
+      </c>
+      <c r="F40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41">
+        <v>47.575809999999997</v>
+      </c>
+      <c r="D41">
+        <v>-122.28870999999999</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="1"/>
+        <v>http://maps.google.com/?q=47.57581,-122.28871</v>
+      </c>
+      <c r="F41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42">
+        <v>47.562289999999997</v>
+      </c>
+      <c r="D42">
+        <v>-122.30423999999999</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="1"/>
+        <v>http://maps.google.com/?q=47.56229,-122.30424</v>
+      </c>
+      <c r="F42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43">
+        <v>47.552799999999998</v>
+      </c>
+      <c r="D43">
+        <v>-122.26821</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="1"/>
+        <v>http://maps.google.com/?q=47.5528,-122.26821</v>
+      </c>
+      <c r="F43" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44">
+        <v>47.543930000000003</v>
+      </c>
+      <c r="D44">
+        <v>-122.28648</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="1"/>
+        <v>http://maps.google.com/?q=47.54393,-122.28648</v>
+      </c>
+      <c r="F44" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45">
+        <v>47.526350000000001</v>
+      </c>
+      <c r="D45">
+        <v>-122.2741</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="1"/>
+        <v>http://maps.google.com/?q=47.52635,-122.2741</v>
+      </c>
+      <c r="F45" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46">
+        <v>47.509349999999998</v>
+      </c>
+      <c r="D46">
+        <v>-122.25954</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="1"/>
+        <v>http://maps.google.com/?q=47.50935,-122.25954</v>
+      </c>
+      <c r="F46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47">
+        <v>47.684869999999997</v>
+      </c>
+      <c r="D47">
+        <v>-122.30991</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="1"/>
+        <v>http://maps.google.com/?q=47.68487,-122.30991</v>
+      </c>
+      <c r="F47" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48">
+        <v>47.658549999999998</v>
+      </c>
+      <c r="D48">
+        <v>-122.30659</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="1"/>
+        <v>http://maps.google.com/?q=47.65855,-122.30659</v>
+      </c>
+      <c r="F48" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49">
+        <v>47.66601</v>
+      </c>
+      <c r="D49">
+        <v>-122.3122</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="1"/>
+        <v>http://maps.google.com/?q=47.66601,-122.3122</v>
+      </c>
+      <c r="F49" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50">
+        <v>47.57882</v>
+      </c>
+      <c r="D50">
+        <v>-122.37881</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="1"/>
+        <v>http://maps.google.com/?q=47.57882,-122.37881</v>
+      </c>
+      <c r="F50" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51">
+        <v>47.56071</v>
+      </c>
+      <c r="D51">
+        <v>-122.38695</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="1"/>
+        <v>http://maps.google.com/?q=47.56071,-122.38695</v>
+      </c>
+      <c r="F51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52">
+        <v>47.525550000000003</v>
+      </c>
+      <c r="D52">
+        <v>-122.38458</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="1"/>
+        <v>http://maps.google.com/?q=47.52555,-122.38458</v>
+      </c>
+      <c r="F52" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F53">
+    <sortState ref="A2:F58">
+      <sortCondition ref="A1:A58"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>47.620150000000002</v>
+      </c>
+      <c r="C2">
+        <v>-122.30477999999999</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D7" si="0">E2 &amp; B2 &amp; "," &amp; C2</f>
+        <v>http://maps.google.com/?q=47.62015,-122.30478</v>
+      </c>
+      <c r="E2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2">
+        <v>98122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>47.690300000000001</v>
+      </c>
+      <c r="C3">
+        <v>-122.32876</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="0"/>
+        <v>http://maps.google.com/?q=47.6903,-122.32876</v>
+      </c>
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3">
+        <v>98133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4">
+        <v>47.630020000000002</v>
+      </c>
+      <c r="C4">
+        <v>-122.36805</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>http://maps.google.com/?q=47.63002,-122.36805</v>
+      </c>
+      <c r="E4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4">
+        <v>98101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5">
+        <v>47.54786</v>
+      </c>
+      <c r="C5">
+        <v>-122.36179</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>http://maps.google.com/?q=47.54786,-122.36179</v>
+      </c>
+      <c r="E5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5">
+        <v>98106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>47.54768</v>
+      </c>
+      <c r="C6">
+        <v>-122.28479</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>http://maps.google.com/?q=47.54768,-122.28479</v>
+      </c>
+      <c r="E6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6">
+        <v>98108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7">
+        <v>47.621000000000002</v>
+      </c>
+      <c r="C7">
+        <v>-122.33299</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>http://maps.google.com/?q=47.621,-122.33299</v>
+      </c>
+      <c r="E7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" t="s">
         <v>74</v>
       </c>
-      <c r="B37" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37">
-        <v>47.562289999999997</v>
-      </c>
-      <c r="D37">
-        <v>-122.30423999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>76</v>
-      </c>
-      <c r="B38" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38">
-        <v>47.552799999999998</v>
-      </c>
-      <c r="D38">
-        <v>-122.26821</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" t="s">
-        <v>79</v>
-      </c>
-      <c r="C39">
-        <v>47.534579999999998</v>
-      </c>
-      <c r="D39">
-        <v>-122.30302</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>80</v>
-      </c>
-      <c r="B40" t="s">
-        <v>81</v>
-      </c>
-      <c r="C40">
-        <v>47.543930000000003</v>
-      </c>
-      <c r="D40">
-        <v>-122.28648</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>82</v>
-      </c>
-      <c r="B41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41">
-        <v>47.526350000000001</v>
-      </c>
-      <c r="D41">
-        <v>-122.2741</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>84</v>
-      </c>
-      <c r="B42" t="s">
-        <v>85</v>
-      </c>
-      <c r="C42">
-        <v>47.509349999999998</v>
-      </c>
-      <c r="D42">
-        <v>-122.25954</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>86</v>
-      </c>
-      <c r="B43" t="s">
-        <v>87</v>
-      </c>
-      <c r="C43">
-        <v>47.54786</v>
-      </c>
-      <c r="D43">
-        <v>-122.36179</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>88</v>
-      </c>
-      <c r="B44" t="s">
-        <v>89</v>
-      </c>
-      <c r="C44">
-        <v>47.57882</v>
-      </c>
-      <c r="D44">
-        <v>-122.37881</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>90</v>
-      </c>
-      <c r="B45" t="s">
-        <v>91</v>
-      </c>
-      <c r="C45">
-        <v>47.56071</v>
-      </c>
-      <c r="D45">
-        <v>-122.38695</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>92</v>
-      </c>
-      <c r="B46" t="s">
-        <v>93</v>
-      </c>
-      <c r="C46">
-        <v>47.548409999999997</v>
-      </c>
-      <c r="D46">
-        <v>-122.35481</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>94</v>
-      </c>
-      <c r="B47" t="s">
-        <v>95</v>
-      </c>
-      <c r="C47">
-        <v>47.525550000000003</v>
-      </c>
-      <c r="D47">
-        <v>-122.38458</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>96</v>
-      </c>
-      <c r="B48" t="s">
-        <v>97</v>
-      </c>
-      <c r="C48">
-        <v>47.526110000000003</v>
-      </c>
-      <c r="D48">
-        <v>-122.33638999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>98</v>
-      </c>
-      <c r="B49" t="s">
-        <v>99</v>
-      </c>
-      <c r="C49">
-        <v>47.525449999999999</v>
-      </c>
-      <c r="D49">
-        <v>-122.36582</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>100</v>
-      </c>
-      <c r="B50" t="s">
-        <v>101</v>
-      </c>
-      <c r="C50">
-        <v>47.630020000000002</v>
-      </c>
-      <c r="D50">
-        <v>-122.36805</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>102</v>
-      </c>
-      <c r="B51" t="s">
-        <v>103</v>
-      </c>
-      <c r="C51">
-        <v>47.650260000000003</v>
-      </c>
-      <c r="D51">
-        <v>-122.4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>104</v>
-      </c>
-      <c r="B52" t="s">
-        <v>105</v>
-      </c>
-      <c r="C52">
-        <v>47.642850000000003</v>
-      </c>
-      <c r="D52">
-        <v>-122.36266999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>106</v>
-      </c>
-      <c r="B53" t="s">
-        <v>107</v>
-      </c>
-      <c r="C53">
-        <v>47.62744</v>
-      </c>
-      <c r="D53">
-        <v>-122.34571</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>108</v>
-      </c>
-      <c r="B54" t="s">
-        <v>109</v>
-      </c>
-      <c r="C54">
-        <v>47.626980000000003</v>
-      </c>
-      <c r="D54">
-        <v>-122.36281</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>110</v>
-      </c>
-      <c r="B55" t="s">
-        <v>111</v>
-      </c>
-      <c r="C55">
-        <v>47.615760000000002</v>
-      </c>
-      <c r="D55">
-        <v>-122.35087</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>112</v>
-      </c>
-      <c r="B56" t="s">
-        <v>113</v>
-      </c>
-      <c r="C56">
-        <v>47.614620000000002</v>
-      </c>
-      <c r="D56">
-        <v>-122.34028000000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>114</v>
-      </c>
-      <c r="B57" t="s">
-        <v>115</v>
-      </c>
-      <c r="C57">
-        <v>47.607759999999999</v>
-      </c>
-      <c r="D57">
-        <v>-122.3409</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>116</v>
-      </c>
-      <c r="B58" t="s">
-        <v>117</v>
-      </c>
-      <c r="C58">
-        <v>47.621000000000002</v>
-      </c>
-      <c r="D58">
-        <v>-122.33299</v>
+      <c r="H7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7">
+        <v>98124</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>